--- a/biology/Zoologie/Gavialidae/Gavialidae.xlsx
+++ b/biology/Zoologie/Gavialidae/Gavialidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gavialidae sont une famille de crocodiliens. Elle a été nommée par le médecin-militaire Andrew Adams (1827-1882), zoologiste britannique en 1854. 
 Cette famille comporte deux espèces actuelle : Gavialis gangeticus, le Gavial du Gange, et Tomistoma schlegelii, le Faux-gavial de Malaisie (ou Gavial de Schlegel).
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gavialis gangeticus se rencontre en Asie du Sud et Tomistoma schlegelii en Asie du Sud-Est.
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 juil. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 juil. 2011) :
 Gavialis Oppel, 1811
 et les genres fossiles :
 †Aktiogavialis Vélez-Juarbe, Brochu &amp; Santos, 2007
@@ -583,11 +599,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gavialidae font partie de la super-famille des Gavialoidea, autrefois florissante. Ce groupe est le plus basal dans les crocodiliens : il est le groupe frère de tous les autres crocodiliens, les Brevirostres, (Alligatoridae et Crocodylidae, c'est-à-dire alligators et crocodiles).
 Les dernières analyses des relations unissant les crocodiliens (les crocodiles modernes) sont contradictoires quant à la position systématique de Tomistoma. De ce fait tous les crocodiliens actuels sont parfois rassemblés dans une famille unique les Crocodilidae au sens large.
-Relations phylogénétiques d'après Brochu (2001)[2] :
+Relations phylogénétiques d'après Brochu (2001) :
 Hypothèse morphologique : L'utilisation de caractères morphologiques indique que Tomistoma appartient aux Crocodylidae, avec les autres Tomistominae:
 ─o Crocodilia
  ├─o Gavialis
@@ -632,7 +650,9 @@
           <t>Position phylogénique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Diapsida
 Archosauria
